--- a/flows/TYA_fund_flow_data.xlsx
+++ b/flows/TYA_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6555,6 +6555,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-3.35</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
